--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/CONNECTICUT_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/CONNECTICUT_2010.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Rincon De Romos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Cacahoatan</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Chilon</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Huehuetan</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -655,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -681,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -694,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -707,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Tuzantan</t>
@@ -720,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -733,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Zinacantan</t>
@@ -746,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Torreon</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -878,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -966,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Atarjea</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -1036,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Dolores Hidalgo</t>
@@ -1049,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1062,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -1075,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -1088,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1101,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tarandacuao</t>
@@ -1114,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -1127,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -1140,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Xichu</t>
@@ -1153,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1166,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1197,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1210,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -1223,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -1236,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -1249,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Atoyac De Alvarez</t>
@@ -1262,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Chilapa De Alvarez</t>
@@ -1275,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -1288,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Cualac</t>
@@ -1301,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzon</t>
@@ -1314,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Huamuxtitlan</t>
@@ -1327,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -1353,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Metlatonoc</t>
@@ -1379,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Olinala</t>
@@ -1392,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Pilcaya</t>
@@ -1405,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>San Luis Acatlan</t>
@@ -1418,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tixtla De Guerrero</t>
@@ -1431,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1444,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Xochihuehuetlan</t>
@@ -1457,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1488,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -1501,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -1514,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -1527,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1540,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -1553,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1566,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>La Mision</t>
@@ -1579,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Lolotla</t>
@@ -1592,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Molango De Escamilla</t>
@@ -1605,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -1618,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -1631,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Tianguistengo</t>
@@ -1644,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1675,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -1688,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Autlan De Navarro</t>
@@ -1701,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1714,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Cuquio</t>
@@ -1727,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Encarnacion De Diaz</t>
@@ -1740,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1753,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Ixtlahuacan Del Rio</t>
@@ -1766,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1779,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Mazamitla</t>
@@ -1792,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Ocotlan</t>
@@ -1805,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -1818,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tizapan El Alto</t>
@@ -1831,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Tonala</t>
@@ -1844,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1857,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Union De Tula</t>
@@ -1870,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Valle De Juarez</t>
@@ -1883,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Yahualica De Gonzalez Gallo</t>
@@ -1896,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1909,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1940,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1953,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Chapa De Mota</t>
@@ -1966,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Chimalhuacan</t>
@@ -1979,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Cuautitlan</t>
@@ -1992,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Donato Guerra</t>
@@ -2005,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2018,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -2031,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -2044,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -2057,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -2070,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -2083,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Nicolas Romero</t>
@@ -2096,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2109,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -2122,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -2135,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Texcaltitlan</t>
@@ -2148,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -2161,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Tlalmanalco</t>
@@ -2174,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2187,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -2200,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -2213,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2244,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Apatzingan</t>
@@ -2257,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Aporo</t>
@@ -2270,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Cotija</t>
@@ -2283,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -2296,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Huiramba</t>
@@ -2309,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Jacona</t>
@@ -2322,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Jiquilpan</t>
@@ -2335,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2348,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -2361,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -2374,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Marcos Castellanos</t>
@@ -2387,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2400,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Patzcuaro</t>
@@ -2413,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -2426,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -2439,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Taretan</t>
@@ -2452,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Tocumbo</t>
@@ -2465,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -2478,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -2491,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -2504,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2535,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Ayala</t>
@@ -2548,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -2561,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -2574,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Jantetelco</t>
@@ -2587,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -2600,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -2613,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Mazatepec</t>
@@ -2626,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Miacatlan</t>
@@ -2639,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Temoac</t>
@@ -2652,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -2665,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Tetela Del Volcan</t>
@@ -2678,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -2691,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Tlayacapan</t>
@@ -2704,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Totolapan</t>
@@ -2717,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -2730,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -2743,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2774,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2805,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Asuncion Ocotlan</t>
@@ -2818,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -2831,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Cuilapam De Guerrero</t>
@@ -2844,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -2857,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Nejapa De Madero</t>
@@ -2870,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -2883,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Ocotlan De Morelos</t>
@@ -2896,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -2909,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>San Agustin Loxicha</t>
@@ -2922,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>San Agustin Yatareni</t>
@@ -2935,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>San Andres Paxtlan</t>
@@ -2948,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>San Antonio Nanahuatipam</t>
@@ -2961,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>San Jose Ayuquila</t>
@@ -2974,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>San Jose Tenango</t>
@@ -2987,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -3000,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -3013,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>San Juan Juquila Vijanos</t>
@@ -3026,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>San Miguel Del Puerto</t>
@@ -3039,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>San Pedro Ixcatlan</t>
@@ -3052,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>San Pedro Ocotepec</t>
@@ -3065,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -3078,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -3091,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Santiago Chazumba</t>
@@ -3104,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -3117,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Silacayoapam</t>
@@ -3130,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -3143,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Tlalixtac De Cabrera</t>
@@ -3156,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Villa De Zaachila</t>
@@ -3169,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Villa Sola De Vega</t>
@@ -3182,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3213,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Acatlan</t>
@@ -3226,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -3239,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Albino Zertuche</t>
@@ -3252,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Amozoc</t>
@@ -3265,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -3278,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Atzitzihuacan</t>
@@ -3291,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Axutla</t>
@@ -3304,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -3317,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -3330,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -3343,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -3356,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -3369,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Coxcatlan</t>
@@ -3382,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Cuapiaxtla De Madero</t>
@@ -3395,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -3408,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -3421,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Epatlan</t>
@@ -3434,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -3447,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -3460,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Huatlatlauca</t>
@@ -3473,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -3486,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Huehuetlan El Grande</t>
@@ -3499,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -3512,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlan</t>
@@ -3525,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -3538,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -3551,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -3564,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Los Reyes De Juarez</t>
@@ -3577,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Molcaxac</t>
@@ -3590,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -3603,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Nicolas Bravo</t>
@@ -3616,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Nopalucan</t>
@@ -3629,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -3642,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -3655,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Petlalcingo</t>
@@ -3668,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -3681,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -3694,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -3707,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Rafael Lara Grajales</t>
@@ -3720,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>San Andres Cholula</t>
@@ -3733,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>San Felipe Teotlalcingo</t>
@@ -3746,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>San Gabriel Chilac</t>
@@ -3759,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>San Gregorio Atzompa</t>
@@ -3772,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>San Jeronimo Xayacatlan</t>
@@ -3785,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>San Juan Atzompa</t>
@@ -3798,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>San Martin Texmelucan</t>
@@ -3811,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>San Martin Totoltepec</t>
@@ -3824,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>San Miguel Xoxtla</t>
@@ -3837,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>San Nicolas De Los Ranchos</t>
@@ -3850,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -3863,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>San Pedro Yeloixtlahuaca</t>
@@ -3876,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Santa Ines Ahuatempan</t>
@@ -3889,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Santa Isabel Cholula</t>
@@ -3902,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Santo Tomas Hueyotlipan</t>
@@ -3915,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Soltepec</t>
@@ -3928,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Tecali De Herrera</t>
@@ -3941,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -3954,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Tecomatlan</t>
@@ -3967,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Tehuacan</t>
@@ -3980,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -3993,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Tepanco De Lopez</t>
@@ -4006,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -4019,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Tepemaxalco</t>
@@ -4032,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -4045,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Tepexi De Rodriguez</t>
@@ -4058,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Tepeyahualco</t>
@@ -4071,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -4084,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -4097,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Tlachichuca</t>
@@ -4110,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Tlacuilotepec</t>
@@ -4123,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -4136,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Tlapanala</t>
@@ -4149,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -4162,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -4175,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Tochtepec</t>
@@ -4188,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Xayacatlan De Bravo</t>
@@ -4201,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Xochiltepec</t>
@@ -4214,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Xochitlan Todos Santos</t>
@@ -4227,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -4240,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Zacapala</t>
@@ -4253,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -4266,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -4279,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -4292,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Zinacatepec</t>
@@ -4305,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4336,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Toliman</t>
@@ -4349,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4380,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Ciudad Del Maiz</t>
@@ -4393,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -4406,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Guadalcazar</t>
@@ -4419,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -4432,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Rayon</t>
@@ -4445,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -4458,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -4471,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -4484,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Venado</t>
@@ -4497,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4528,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Culiacan</t>
@@ -4541,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Mazatlan</t>
@@ -4554,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4585,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>San Luis Rio Colorado</t>
@@ -4598,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4629,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Cardenas</t>
@@ -4642,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -4655,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4686,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -4699,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -4712,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -4725,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4756,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -4769,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -4782,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Nativitas</t>
@@ -4795,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -4808,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Papalotla De Xicohtencatl</t>
@@ -4821,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>San Jose Teacalco</t>
@@ -4834,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>San Juan Huactzinco</t>
@@ -4847,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>San Pablo Del Monte</t>
@@ -4860,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Santa Apolonia Teacalco</t>
@@ -4873,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Teolocholco</t>
@@ -4886,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Tepeyanco</t>
@@ -4899,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -4912,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Tetlatlahuca</t>
@@ -4925,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -4938,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -4951,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Totolac</t>
@@ -4964,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Tzompantepec</t>
@@ -4977,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -4990,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Xicohtzinco</t>
@@ -5003,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Yauhquemecan</t>
@@ -5016,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -5029,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5060,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -5073,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Acultzingo</t>
@@ -5086,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Coacoatzintla</t>
@@ -5099,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -5112,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -5125,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -5138,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -5151,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Ixhuatlan De Madero</t>
@@ -5164,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -5177,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -5190,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -5203,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Minatitlan</t>
@@ -5216,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -5229,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -5242,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -5255,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Perote</t>
@@ -5268,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -5281,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -5294,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Sayula De Aleman</t>
@@ -5307,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -5320,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -5333,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Tenampa</t>
@@ -5346,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -5359,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Tlaquilpa</t>
@@ -5372,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Tuxpam</t>
@@ -5385,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Ursulo Galvan</t>
@@ -5398,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Vega De Alatorre</t>
@@ -5411,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -5424,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -5437,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -5450,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5481,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Yucatan</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Progreso</t>
@@ -5494,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Yucatan</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5525,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -5538,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Rio Grande</t>
@@ -5551,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Total</t>
